--- a/OPRFileImport/(OPR)Import Planholiday.xlsx
+++ b/OPRFileImport/(OPR)Import Planholiday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPRFileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B338BE9-503A-4A10-A6D7-F468BC60AC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A7F84-F591-4B5A-97A7-0236AB7E8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D06DF5-8B01-4144-B90F-800FBA6082E7}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
